--- a/TriggerCoding_SummaryJuly2022.xlsx
+++ b/TriggerCoding_SummaryJuly2022.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolger/Documents/work/Projects/SpatioTempDyn_Syntax/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolger/PycharmProjects/Syntax_SpatioTempDyn_31-05-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF2A0D9-4A2A-B647-88C7-4DBFD38F66D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA86267-08D2-7043-876E-9C61EBDBB3DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2060" windowWidth="26440" windowHeight="15440" xr2:uid="{55183A8E-A724-684F-AE6E-9441238BDEA4}"/>
+    <workbookView xWindow="2360" yWindow="1160" windowWidth="26440" windowHeight="15440" xr2:uid="{55183A8E-A724-684F-AE6E-9441238BDEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="236">
   <si>
     <t>rouge</t>
   </si>
@@ -304,13 +304,448 @@
   </si>
   <si>
     <t>Isadj_adv</t>
+  </si>
+  <si>
+    <t>v1_adj_F</t>
+  </si>
+  <si>
+    <t>v2_adj</t>
+  </si>
+  <si>
+    <t>v3_adj</t>
+  </si>
+  <si>
+    <t>v4_adj</t>
+  </si>
+  <si>
+    <t>v5_adj</t>
+  </si>
+  <si>
+    <t>v6_adj</t>
+  </si>
+  <si>
+    <t>v7_adj_F</t>
+  </si>
+  <si>
+    <t>v8_adj</t>
+  </si>
+  <si>
+    <t>v9_adj</t>
+  </si>
+  <si>
+    <t>v10_adj</t>
+  </si>
+  <si>
+    <t>v11_adj</t>
+  </si>
+  <si>
+    <t>v12_adj</t>
+  </si>
+  <si>
+    <t>g1_adj</t>
+  </si>
+  <si>
+    <t>g2_adj</t>
+  </si>
+  <si>
+    <t>g3_adj</t>
+  </si>
+  <si>
+    <t>g4_adj</t>
+  </si>
+  <si>
+    <t>g5_adj_F</t>
+  </si>
+  <si>
+    <t>g6_adj</t>
+  </si>
+  <si>
+    <t>g7_adj_F</t>
+  </si>
+  <si>
+    <t>g8_adj_F</t>
+  </si>
+  <si>
+    <t>g9_adj</t>
+  </si>
+  <si>
+    <t>g10_adj</t>
+  </si>
+  <si>
+    <t>g11_adj</t>
+  </si>
+  <si>
+    <t>g12_adj</t>
+  </si>
+  <si>
+    <t>l1_adj</t>
+  </si>
+  <si>
+    <t>l2_adj</t>
+  </si>
+  <si>
+    <t>l3_adj</t>
+  </si>
+  <si>
+    <t>l4_adj</t>
+  </si>
+  <si>
+    <t>l5_adj_F</t>
+  </si>
+  <si>
+    <t>l6_adj</t>
+  </si>
+  <si>
+    <t>l7_adj_F</t>
+  </si>
+  <si>
+    <t>l8_adj</t>
+  </si>
+  <si>
+    <t>l9_adj</t>
+  </si>
+  <si>
+    <t>l10_adj</t>
+  </si>
+  <si>
+    <t>l11_adj</t>
+  </si>
+  <si>
+    <t>l12_adj</t>
+  </si>
+  <si>
+    <t>mg1_adj_F</t>
+  </si>
+  <si>
+    <t>mg2_adj</t>
+  </si>
+  <si>
+    <t>mg3_adj</t>
+  </si>
+  <si>
+    <t>mg4_adj</t>
+  </si>
+  <si>
+    <t>mg5_adj</t>
+  </si>
+  <si>
+    <t>mg6_adj</t>
+  </si>
+  <si>
+    <t>mg7_adj</t>
+  </si>
+  <si>
+    <t>mg8_adj_F</t>
+  </si>
+  <si>
+    <t>mg9_adj</t>
+  </si>
+  <si>
+    <t>mg10_adj</t>
+  </si>
+  <si>
+    <t>mg11_adj</t>
+  </si>
+  <si>
+    <t>mg12_adj</t>
+  </si>
+  <si>
+    <t>mv1_adj</t>
+  </si>
+  <si>
+    <t>mv2_adj</t>
+  </si>
+  <si>
+    <t>mv3_adj</t>
+  </si>
+  <si>
+    <t>mv4_adj</t>
+  </si>
+  <si>
+    <t>mv5_adj</t>
+  </si>
+  <si>
+    <t>mv6_adj</t>
+  </si>
+  <si>
+    <t>mv7_adj_F</t>
+  </si>
+  <si>
+    <t>mv8_adj_F</t>
+  </si>
+  <si>
+    <t>mv9_adj</t>
+  </si>
+  <si>
+    <t>mv10_adj</t>
+  </si>
+  <si>
+    <t>mv11_adj</t>
+  </si>
+  <si>
+    <t>mv12_adj</t>
+  </si>
+  <si>
+    <t>j1_adj_F</t>
+  </si>
+  <si>
+    <t>j2_adj</t>
+  </si>
+  <si>
+    <t>j3_adj</t>
+  </si>
+  <si>
+    <t>j4_adj</t>
+  </si>
+  <si>
+    <t>j5_adj_F</t>
+  </si>
+  <si>
+    <t>j6_adj</t>
+  </si>
+  <si>
+    <t>j7_adj</t>
+  </si>
+  <si>
+    <t>j8_adj</t>
+  </si>
+  <si>
+    <t>j9_adj</t>
+  </si>
+  <si>
+    <t>j10_adj</t>
+  </si>
+  <si>
+    <t>j11_adj</t>
+  </si>
+  <si>
+    <t>j12_adj</t>
+  </si>
+  <si>
+    <t>v1_adv_F</t>
+  </si>
+  <si>
+    <t>v2_adv</t>
+  </si>
+  <si>
+    <t>v3_adv</t>
+  </si>
+  <si>
+    <t>v4_adv</t>
+  </si>
+  <si>
+    <t>v5_adv</t>
+  </si>
+  <si>
+    <t>v6_adv</t>
+  </si>
+  <si>
+    <t>v7_adv_F</t>
+  </si>
+  <si>
+    <t>v8_adv</t>
+  </si>
+  <si>
+    <t>v9_adv</t>
+  </si>
+  <si>
+    <t>v10_adv</t>
+  </si>
+  <si>
+    <t>v11_adv</t>
+  </si>
+  <si>
+    <t>v12_adv</t>
+  </si>
+  <si>
+    <t>g1_adv</t>
+  </si>
+  <si>
+    <t>g2_adv</t>
+  </si>
+  <si>
+    <t>g3_adv</t>
+  </si>
+  <si>
+    <t>g4_adv</t>
+  </si>
+  <si>
+    <t>g5_adv_F</t>
+  </si>
+  <si>
+    <t>g6_adv</t>
+  </si>
+  <si>
+    <t>g7_adv</t>
+  </si>
+  <si>
+    <t>g8_adv_F</t>
+  </si>
+  <si>
+    <t>g9_adv</t>
+  </si>
+  <si>
+    <t>g10_adv</t>
+  </si>
+  <si>
+    <t>g11_adv</t>
+  </si>
+  <si>
+    <t>g12_adv</t>
+  </si>
+  <si>
+    <t>l1_adv</t>
+  </si>
+  <si>
+    <t>l2_adv</t>
+  </si>
+  <si>
+    <t>l3_adv</t>
+  </si>
+  <si>
+    <t>l4_adv</t>
+  </si>
+  <si>
+    <t>l5_adv_F</t>
+  </si>
+  <si>
+    <t>l6_adv</t>
+  </si>
+  <si>
+    <t>l7_adv_F</t>
+  </si>
+  <si>
+    <t>l8_adv</t>
+  </si>
+  <si>
+    <t>l9_adv</t>
+  </si>
+  <si>
+    <t>l10_adv</t>
+  </si>
+  <si>
+    <t>l11_adv</t>
+  </si>
+  <si>
+    <t>l12_adv</t>
+  </si>
+  <si>
+    <t>mg1_adv_F</t>
+  </si>
+  <si>
+    <t>mg2_adv</t>
+  </si>
+  <si>
+    <t>mg3_adv</t>
+  </si>
+  <si>
+    <t>mg4_adv</t>
+  </si>
+  <si>
+    <t>mg5_adv</t>
+  </si>
+  <si>
+    <t>mg6_adv</t>
+  </si>
+  <si>
+    <t>mg7_adv</t>
+  </si>
+  <si>
+    <t>mg8_adv_F</t>
+  </si>
+  <si>
+    <t>mg9_adv</t>
+  </si>
+  <si>
+    <t>mg10_adv</t>
+  </si>
+  <si>
+    <t>mg11_adv</t>
+  </si>
+  <si>
+    <t>mg12_adv</t>
+  </si>
+  <si>
+    <t>mv1_adv</t>
+  </si>
+  <si>
+    <t>mv2_adv</t>
+  </si>
+  <si>
+    <t>mv3_adv</t>
+  </si>
+  <si>
+    <t>mv4_adv</t>
+  </si>
+  <si>
+    <t>mv5_adv</t>
+  </si>
+  <si>
+    <t>mv6_adv</t>
+  </si>
+  <si>
+    <t>mv7_adv_F</t>
+  </si>
+  <si>
+    <t>mv8_adv_F</t>
+  </si>
+  <si>
+    <t>mv9_adv</t>
+  </si>
+  <si>
+    <t>mv10_adv</t>
+  </si>
+  <si>
+    <t>mv11_adv</t>
+  </si>
+  <si>
+    <t>mv12_adv</t>
+  </si>
+  <si>
+    <t>j1_adv_F</t>
+  </si>
+  <si>
+    <t>j2_adv</t>
+  </si>
+  <si>
+    <t>j3_adv</t>
+  </si>
+  <si>
+    <t>j4_adv</t>
+  </si>
+  <si>
+    <t>j5_adv_F</t>
+  </si>
+  <si>
+    <t>j6_adv</t>
+  </si>
+  <si>
+    <t>j7_adv</t>
+  </si>
+  <si>
+    <t>j8_adv</t>
+  </si>
+  <si>
+    <t>j9_adv</t>
+  </si>
+  <si>
+    <t>j10_adv</t>
+  </si>
+  <si>
+    <t>j11_adv</t>
+  </si>
+  <si>
+    <t>j12_adv</t>
+  </si>
+  <si>
+    <t>StimID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,13 +753,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,8 +785,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07A33B7-4E75-934D-A3CD-767B284B71E4}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,2594 +1123,3026 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
         <v>201</v>
       </c>
-      <c r="C2">
-        <f>IF(B2&gt;200,1,0)</f>
+      <c r="D2">
+        <f>IF(C2&gt;200,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">IF(B3&gt;200,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;200,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
         <v>13</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
         <v>14</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
         <v>203</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
         <v>16</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
         <v>17</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
         <v>18</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
         <v>21</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
         <v>22</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
         <v>23</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
         <v>205</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
         <v>24</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20">
         <v>207</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21">
         <v>25</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
         <v>26</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23">
         <v>27</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
         <v>28</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
         <v>29</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26">
         <v>30</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27">
         <v>31</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
         <v>32</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29">
         <v>33</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30">
         <v>209</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
         <v>34</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>76</v>
       </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32">
         <v>211</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33">
         <v>35</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
         <v>36</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>76</v>
       </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35">
         <v>37</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36">
         <v>38</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
         <v>76</v>
       </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37">
         <v>39</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>76</v>
       </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38">
         <v>213</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39">
         <v>40</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>77</v>
       </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40">
         <v>41</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>77</v>
       </c>
-      <c r="E40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41">
         <v>42</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>77</v>
       </c>
-      <c r="E41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42">
         <v>43</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
         <v>77</v>
       </c>
-      <c r="E42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43">
         <v>44</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44">
         <v>45</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>77</v>
       </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45">
         <v>215</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>77</v>
       </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46">
         <v>46</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47">
         <v>47</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>77</v>
       </c>
-      <c r="E47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48">
         <v>48</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>77</v>
       </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49">
         <v>49</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>77</v>
       </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50">
         <v>50</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>78</v>
       </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51">
         <v>51</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
         <v>78</v>
       </c>
-      <c r="E51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52">
         <v>52</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>78</v>
       </c>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53">
         <v>53</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
         <v>78</v>
       </c>
-      <c r="E53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
         <v>54</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
         <v>78</v>
       </c>
-      <c r="E54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55">
         <v>55</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>78</v>
       </c>
-      <c r="E55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56">
         <v>217</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>78</v>
       </c>
-      <c r="E56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57">
         <v>219</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>78</v>
       </c>
-      <c r="E57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58">
         <v>56</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>78</v>
       </c>
-      <c r="E58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59">
         <v>57</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
         <v>78</v>
       </c>
-      <c r="E59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60">
         <v>58</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>78</v>
       </c>
-      <c r="E60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61">
         <v>59</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
         <v>78</v>
       </c>
-      <c r="E61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62">
         <v>221</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>79</v>
       </c>
-      <c r="E62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63">
         <v>60</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
         <v>79</v>
       </c>
-      <c r="E63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64">
         <v>61</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>79</v>
       </c>
-      <c r="E64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65">
         <v>62</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
         <v>79</v>
       </c>
-      <c r="E65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66">
         <v>223</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>79</v>
       </c>
-      <c r="E66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67">
         <v>63</v>
       </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">IF(B67&gt;200,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;200,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
         <v>79</v>
       </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68">
         <v>64</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
         <v>79</v>
       </c>
-      <c r="E68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69">
         <v>65</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
         <v>79</v>
       </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70">
         <v>66</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
         <v>79</v>
       </c>
-      <c r="E70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71">
         <v>67</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
         <v>79</v>
       </c>
-      <c r="E71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72">
         <v>68</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
         <v>79</v>
       </c>
-      <c r="E72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73">
         <v>69</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
         <v>79</v>
       </c>
-      <c r="E73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74">
         <v>202</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>80</v>
       </c>
-      <c r="E74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
         <v>110</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
         <v>80</v>
       </c>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76">
         <v>111</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
         <v>80</v>
       </c>
-      <c r="E76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77">
         <v>112</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
         <v>80</v>
       </c>
-      <c r="E77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78">
         <v>113</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
         <v>80</v>
       </c>
-      <c r="E78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79">
         <v>114</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80">
         <v>204</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>80</v>
       </c>
-      <c r="E80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81">
         <v>115</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
         <v>80</v>
       </c>
-      <c r="E81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82">
         <v>116</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
         <v>80</v>
       </c>
-      <c r="E82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83">
         <v>117</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
         <v>80</v>
       </c>
-      <c r="E83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84">
         <v>118</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
         <v>80</v>
       </c>
-      <c r="E84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85">
         <v>119</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
         <v>80</v>
       </c>
-      <c r="E85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>12</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
         <v>120</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
         <v>81</v>
       </c>
-      <c r="E86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>13</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87">
         <v>121</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
         <v>81</v>
       </c>
-      <c r="E87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>14</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88">
         <v>122</v>
       </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
         <v>81</v>
       </c>
-      <c r="E88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
         <v>123</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
         <v>81</v>
       </c>
-      <c r="E89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90">
         <v>206</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>81</v>
       </c>
-      <c r="E90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91">
         <v>124</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
         <v>81</v>
       </c>
-      <c r="E91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92">
         <v>208</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>81</v>
       </c>
-      <c r="E92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93">
         <v>125</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
         <v>81</v>
       </c>
-      <c r="E93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94">
         <v>126</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
         <v>81</v>
       </c>
-      <c r="E94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95">
         <v>127</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
         <v>81</v>
       </c>
-      <c r="E95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96">
         <v>128</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
         <v>81</v>
       </c>
-      <c r="E96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>23</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97">
         <v>129</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
         <v>81</v>
       </c>
-      <c r="E97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>24</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98">
         <v>130</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
         <v>82</v>
       </c>
-      <c r="E98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>25</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99">
         <v>131</v>
       </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
         <v>82</v>
       </c>
-      <c r="E99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>26</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100">
         <v>132</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
         <v>82</v>
       </c>
-      <c r="E100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101">
         <v>133</v>
       </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
         <v>82</v>
       </c>
-      <c r="E101" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>28</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102">
         <v>210</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>82</v>
       </c>
-      <c r="E102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>29</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103">
         <v>134</v>
       </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
         <v>82</v>
       </c>
-      <c r="E103" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104">
         <v>212</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>82</v>
       </c>
-      <c r="E104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>31</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105">
         <v>135</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
         <v>82</v>
       </c>
-      <c r="E105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106">
         <v>136</v>
       </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
         <v>82</v>
       </c>
-      <c r="E106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107">
         <v>137</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
         <v>82</v>
       </c>
-      <c r="E107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108">
         <v>138</v>
       </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
         <v>82</v>
       </c>
-      <c r="E108" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>35</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109">
         <v>139</v>
       </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
         <v>82</v>
       </c>
-      <c r="E109" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110">
         <v>214</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>83</v>
       </c>
-      <c r="E110" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>37</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111">
         <v>140</v>
       </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
         <v>83</v>
       </c>
-      <c r="E111" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>38</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112">
         <v>141</v>
       </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
         <v>83</v>
       </c>
-      <c r="E112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>39</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113">
         <v>142</v>
       </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
         <v>83</v>
       </c>
-      <c r="E113" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>40</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114">
         <v>143</v>
       </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
         <v>83</v>
       </c>
-      <c r="E114" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>41</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115">
         <v>144</v>
       </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
         <v>83</v>
       </c>
-      <c r="E115" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>42</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116">
         <v>145</v>
       </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
         <v>83</v>
       </c>
-      <c r="E116" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>43</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117">
         <v>216</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>83</v>
       </c>
-      <c r="E117" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118">
         <v>146</v>
       </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
         <v>83</v>
       </c>
-      <c r="E118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>45</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119">
         <v>147</v>
       </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
         <v>83</v>
       </c>
-      <c r="E119" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>46</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120">
         <v>148</v>
       </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
         <v>83</v>
       </c>
-      <c r="E120" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>47</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121">
         <v>149</v>
       </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
         <v>83</v>
       </c>
-      <c r="E121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>48</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122">
         <v>150</v>
       </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
         <v>84</v>
       </c>
-      <c r="E122" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>49</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123">
         <v>151</v>
       </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
         <v>84</v>
       </c>
-      <c r="E123" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>50</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124">
         <v>152</v>
       </c>
-      <c r="C124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
         <v>84</v>
       </c>
-      <c r="E124" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>51</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125">
         <v>153</v>
       </c>
-      <c r="C125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
         <v>84</v>
       </c>
-      <c r="E125" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>52</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126">
         <v>154</v>
       </c>
-      <c r="C126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
         <v>84</v>
       </c>
-      <c r="E126" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>53</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127">
         <v>155</v>
       </c>
-      <c r="C127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
         <v>84</v>
       </c>
-      <c r="E127" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>54</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128">
         <v>218</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>84</v>
       </c>
-      <c r="E128" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>55</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129">
         <v>220</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>84</v>
       </c>
-      <c r="E129" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>56</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130">
         <v>156</v>
       </c>
-      <c r="C130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
         <v>84</v>
       </c>
-      <c r="E130" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>57</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131">
         <v>157</v>
       </c>
-      <c r="C131">
-        <f t="shared" ref="C131:C145" si="2">IF(B131&gt;200,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="D131">
+        <f t="shared" ref="C131:D145" si="2">IF(C131&gt;200,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
         <v>84</v>
       </c>
-      <c r="E131" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>58</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132">
         <v>158</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>84</v>
       </c>
-      <c r="E132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>59</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133">
         <v>159</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>84</v>
       </c>
-      <c r="E133" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134">
         <v>222</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>85</v>
       </c>
-      <c r="E134" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>61</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C135">
         <v>160</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>85</v>
       </c>
-      <c r="E135" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>62</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136">
         <v>161</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>85</v>
       </c>
-      <c r="E136" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>63</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C137">
         <v>162</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>85</v>
       </c>
-      <c r="E137" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>64</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138">
         <v>224</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>85</v>
       </c>
-      <c r="E138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>65</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139">
         <v>163</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>85</v>
       </c>
-      <c r="E139" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>66</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140">
         <v>164</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>85</v>
       </c>
-      <c r="E140" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>67</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141">
         <v>165</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>85</v>
       </c>
-      <c r="E141" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>68</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C142">
         <v>166</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>85</v>
       </c>
-      <c r="E142" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>69</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C143">
         <v>167</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>85</v>
       </c>
-      <c r="E143" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>70</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C144">
         <v>168</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>85</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3264,12 +4150,12 @@
       <c r="A145" t="s">
         <v>71</v>
       </c>
-      <c r="B145">
-        <v>169</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B145" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C145" t="e">
+        <f>IF(#REF!&gt;200,1,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="D145" t="s">
         <v>85</v>

--- a/TriggerCoding_SummaryJuly2022.xlsx
+++ b/TriggerCoding_SummaryJuly2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolger/PycharmProjects/Syntax_SpatioTempDyn_31-05-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA86267-08D2-7043-876E-9C61EBDBB3DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6648F5-16D1-094C-B72C-2B074FA62AC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="1160" windowWidth="26440" windowHeight="15440" xr2:uid="{55183A8E-A724-684F-AE6E-9441238BDEA4}"/>
   </bookViews>
@@ -790,11 +790,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,7 +1546,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C21">
@@ -2659,7 +2659,7 @@
       <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C74">
@@ -2680,7 +2680,7 @@
       <c r="A75" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C75">
@@ -2701,7 +2701,7 @@
       <c r="A76" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C76">
@@ -2722,7 +2722,7 @@
       <c r="A77" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C77">
@@ -2743,7 +2743,7 @@
       <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C78">
@@ -2764,7 +2764,7 @@
       <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C79">
@@ -2785,7 +2785,7 @@
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C80">
@@ -2806,7 +2806,7 @@
       <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C81">
@@ -2827,7 +2827,7 @@
       <c r="A82" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C82">
@@ -2848,7 +2848,7 @@
       <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C83">
@@ -2869,7 +2869,7 @@
       <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C84">
@@ -2890,7 +2890,7 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C85">
@@ -2911,7 +2911,7 @@
       <c r="A86" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C86">
@@ -2932,7 +2932,7 @@
       <c r="A87" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C87">
@@ -2953,7 +2953,7 @@
       <c r="A88" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C88">
@@ -2974,7 +2974,7 @@
       <c r="A89" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C89">
@@ -2995,7 +2995,7 @@
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C90">
@@ -3016,7 +3016,7 @@
       <c r="A91" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C91">
@@ -3037,7 +3037,7 @@
       <c r="A92" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C92">
@@ -3058,7 +3058,7 @@
       <c r="A93" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C93">
@@ -3079,7 +3079,7 @@
       <c r="A94" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C94">
@@ -3100,7 +3100,7 @@
       <c r="A95" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C95">
@@ -3121,7 +3121,7 @@
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C96">
@@ -3142,7 +3142,7 @@
       <c r="A97" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C97">
@@ -3163,7 +3163,7 @@
       <c r="A98" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C98">
@@ -3184,7 +3184,7 @@
       <c r="A99" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C99">
@@ -3205,7 +3205,7 @@
       <c r="A100" t="s">
         <v>26</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C100">
@@ -3226,7 +3226,7 @@
       <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C101">
@@ -3247,7 +3247,7 @@
       <c r="A102" t="s">
         <v>28</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C102">
@@ -3268,7 +3268,7 @@
       <c r="A103" t="s">
         <v>29</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C103">
@@ -3289,7 +3289,7 @@
       <c r="A104" t="s">
         <v>30</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C104">
@@ -3310,7 +3310,7 @@
       <c r="A105" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C105">
@@ -3331,7 +3331,7 @@
       <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C106">
@@ -3352,7 +3352,7 @@
       <c r="A107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C107">
@@ -3373,7 +3373,7 @@
       <c r="A108" t="s">
         <v>34</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C108">
@@ -3394,7 +3394,7 @@
       <c r="A109" t="s">
         <v>35</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C109">
@@ -3415,7 +3415,7 @@
       <c r="A110" t="s">
         <v>36</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C110">
@@ -3436,7 +3436,7 @@
       <c r="A111" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C111">
@@ -3457,7 +3457,7 @@
       <c r="A112" t="s">
         <v>38</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C112">
@@ -3478,7 +3478,7 @@
       <c r="A113" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C113">
@@ -3499,7 +3499,7 @@
       <c r="A114" t="s">
         <v>40</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C114">
@@ -3520,7 +3520,7 @@
       <c r="A115" t="s">
         <v>41</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C115">
@@ -3541,7 +3541,7 @@
       <c r="A116" t="s">
         <v>42</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C116">
@@ -3562,7 +3562,7 @@
       <c r="A117" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C117">
@@ -3583,7 +3583,7 @@
       <c r="A118" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C118">
@@ -3604,7 +3604,7 @@
       <c r="A119" t="s">
         <v>45</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C119">
@@ -3625,7 +3625,7 @@
       <c r="A120" t="s">
         <v>46</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C120">
@@ -3646,7 +3646,7 @@
       <c r="A121" t="s">
         <v>47</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C121">
@@ -3667,7 +3667,7 @@
       <c r="A122" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C122">
@@ -3688,7 +3688,7 @@
       <c r="A123" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C123">
@@ -3709,7 +3709,7 @@
       <c r="A124" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C124">
@@ -3730,7 +3730,7 @@
       <c r="A125" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C125">
@@ -3751,7 +3751,7 @@
       <c r="A126" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C126">
@@ -3772,7 +3772,7 @@
       <c r="A127" t="s">
         <v>53</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C127">
@@ -3793,7 +3793,7 @@
       <c r="A128" t="s">
         <v>54</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C128">
@@ -3814,7 +3814,7 @@
       <c r="A129" t="s">
         <v>55</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C129">
@@ -3835,7 +3835,7 @@
       <c r="A130" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C130">
@@ -3856,14 +3856,14 @@
       <c r="A131" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C131">
         <v>157</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="C131:D145" si="2">IF(C131&gt;200,1,0)</f>
+        <f t="shared" ref="D131:D144" si="2">IF(C131&gt;200,1,0)</f>
         <v>0</v>
       </c>
       <c r="E131" t="s">
@@ -3877,7 +3877,7 @@
       <c r="A132" t="s">
         <v>58</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C132">
@@ -3898,7 +3898,7 @@
       <c r="A133" t="s">
         <v>59</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C133">
@@ -3919,7 +3919,7 @@
       <c r="A134" t="s">
         <v>60</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C134">
@@ -3940,7 +3940,7 @@
       <c r="A135" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C135">
@@ -3961,7 +3961,7 @@
       <c r="A136" t="s">
         <v>62</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C136">
@@ -3982,7 +3982,7 @@
       <c r="A137" t="s">
         <v>63</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C137">
@@ -4003,7 +4003,7 @@
       <c r="A138" t="s">
         <v>64</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C138">
@@ -4024,7 +4024,7 @@
       <c r="A139" t="s">
         <v>65</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C139">
@@ -4045,7 +4045,7 @@
       <c r="A140" t="s">
         <v>66</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C140">
@@ -4066,7 +4066,7 @@
       <c r="A141" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C141">
@@ -4087,7 +4087,7 @@
       <c r="A142" t="s">
         <v>68</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C142">
@@ -4108,7 +4108,7 @@
       <c r="A143" t="s">
         <v>69</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C143">
@@ -4129,7 +4129,7 @@
       <c r="A144" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C144">
@@ -4150,7 +4150,7 @@
       <c r="A145" t="s">
         <v>71</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C145" t="e">
